--- a/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br.xlsx
+++ b/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br.xlsx
@@ -110,7 +110,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -124,6 +124,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -148,10 +152,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -169,78 +173,102 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>43100</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>255.06</v>
+        <v>42004</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>412770</v>
+        <v>70939</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>43465</v>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>259.33</v>
+        <v>42369</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>720236</v>
+        <v>141617</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>43830</v>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>266.04</v>
+        <v>42735</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1330163</v>
+        <v>200740</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>267.16</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>2430153</v>
+        <v>43100</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>255.06</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>412770</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>44561</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>264.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3296386</v>
+        <v>43465</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>259.33</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>720236</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>44926</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>291.4</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>4141401</v>
+        <v>43830</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>266.04</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>1330163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>267.16</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2430153</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>264.94</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3296386</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>4141401</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
         <v>45291</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>301.8</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C11" s="5" t="n">
         <v>4419242</v>
       </c>
     </row>

--- a/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br.xlsx
+++ b/FISHTRADER/ARIMA/Grafico 5 - Proteina/db_br.xlsx
@@ -152,10 +152,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -173,102 +173,143 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>42004</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>70939</v>
+        <v>40543</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>238.44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>42369</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>141617</v>
+        <v>40908</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>248.58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>42735</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>200740</v>
+        <v>41274</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>249.03</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>43100</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <v>255.06</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>412770</v>
+        <v>41639</v>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>257.58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>43465</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <v>259.33</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>720236</v>
+        <v>42004</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>260.8</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>70939</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>43830</v>
-      </c>
-      <c r="B7" s="5" t="n">
-        <v>266.04</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>1330163</v>
+        <v>42369</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>258.9</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>141617</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B8" s="5" t="n">
-        <v>267.16</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>2430153</v>
+        <v>42735</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>257.39</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>200740</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>44561</v>
+        <v>43100</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>264.94</v>
+        <v>255.06</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3296386</v>
+        <v>412770</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>44926</v>
+        <v>43465</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>291.4</v>
+        <v>259.33</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4141401</v>
+        <v>720236</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>266.04</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1330163</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>267.16</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2430153</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>264.94</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>3296386</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>291.4</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4141401</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>45291</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B15" s="5" t="n">
         <v>301.8</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C15" s="5" t="n">
         <v>4419242</v>
       </c>
     </row>
